--- a/Designer/Export/Output/Rule/AliasConfig.xlsx
+++ b/Designer/Export/Output/Rule/AliasConfig.xlsx
@@ -89,7 +89,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="bdab0230-b8dd-4d77-a0c3-f6790fa6211d" xfId="1"/>
+    <cellStyle name="b70dcc74-36a4-47e5-9a6b-2af12f4a20df" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
